--- a/dataset/轉折點判斷標準.xlsx
+++ b/dataset/轉折點判斷標準.xlsx
@@ -1,31 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edutime\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/po8_fox/PycharmProjects/PharmacokineticAnalysis/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A1D8D-239D-4E28-AE2C-D266A50C00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B76B41-4898-D340-B171-F13DD9E3911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-260" yWindow="6600" windowWidth="14400" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定完成(勿動)" sheetId="1" r:id="rId1"/>
+    <sheet name="測試表" sheetId="4" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId3"/>
+    <sheet name="2" sheetId="3" r:id="rId4"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
+    <sheet name="Normal_test" sheetId="6" r:id="rId6"/>
+    <sheet name="Normal" sheetId="7" r:id="rId7"/>
+    <sheet name="Renal_test" sheetId="8" r:id="rId8"/>
+    <sheet name="Renal" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="46">
   <si>
     <t>GIVEN DATA</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -174,16 +214,53 @@
     <t>Ln(Cp-Cp')</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>Cp</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dose</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(hr)</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp(ng/mL)</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dose</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +595,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1590,11 +1681,25 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2993,7 +3098,7 @@
                   <c:v>-0.49747847536926371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7561261700827988</c:v>
+                  <c:v>-1.7561261700827999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,6 +3107,1255 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C04C-4DB0-804A-9078984E635B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1201251759"/>
+        <c:axId val="1201253199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1201251759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201253199"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1201253199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201251759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'設定完成(勿動)'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cp (mg/L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$A$7:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$B$7:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33DF-9741-937F-27F072BC4427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="980019919"/>
+        <c:axId val="980019439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="980019919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980019439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="980019439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980019919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'設定完成(勿動)'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cp (mg/L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$A$7:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$B$7:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F10-E546-9D0C-5B82F374CAEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="980019919"/>
+        <c:axId val="980019439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="980019919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980019439"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="980019439"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="980019919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'設定完成(勿動)'!$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LnCp'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$N$24:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$O$24:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.30092137292970517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28605849685263995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25633274469850986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2117441164673147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16715548823611953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2841107850794122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8526727465468858E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13010203330518183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.27873079407583262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.57981849525294205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.86750056770472306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4696759700589417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7C6-1846-9796-0BC18AB3E748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'設定完成(勿動)'!$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ln(Cp-Cp')</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$N$24:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'設定完成(勿動)'!$P$24:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8869024980812015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6191564694497951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0844516235961961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28830816467272929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49747847536926371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7561261700827999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7C6-1846-9796-0BC18AB3E748}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3339,6 +4693,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4372,6 +5846,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4986,6 +8008,125 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7241EE-8C3E-654C-866D-41BCEC7CD4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A971700C-A88D-894F-8FE5-198F7B12D914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B35A13-0FC9-8B42-88E6-C36C34519AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5267,41 +8408,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A13" zoomScale="114" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -5710,7 +8851,7 @@
         <v>1.5</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f>$E$41*EXP($E$38*G29)</f>
         <v>1.0972873710672122</v>
       </c>
       <c r="J29">
@@ -5732,7 +8873,7 @@
         <v>9.2841107850794122E-2</v>
       </c>
       <c r="P29">
-        <v>-1.7561261700827988</v>
+        <v>-1.7561261700827999</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5780,7 +8921,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f>LN(B31)</f>
         <v>-0.11653381625595151</v>
       </c>
       <c r="G31">
@@ -5943,6 +9084,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
+      <c r="G37" s="4"/>
       <c r="N37" t="s">
         <v>24</v>
       </c>
@@ -6075,4 +9217,3634 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CB130C-1D76-764B-AABB-3FE95BA5F37E}">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="104" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37:N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1.5</v>
+      </c>
+      <c r="B12">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>7.95</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="2">
+        <f>LN(B24)</f>
+        <v>2.0731719286662407</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="2">
+        <f>$E$41*EXP($E$38*G24)</f>
+        <v>1.3511031040827601</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="3">
+        <f>B24-H24</f>
+        <v>6.5988968959172398</v>
+      </c>
+      <c r="L24" s="3">
+        <f>LN(K24)</f>
+        <v>1.8869024980812015</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="1">
+        <f>LN(H24)</f>
+        <v>0.30092137292970517</v>
+      </c>
+      <c r="P24">
+        <v>1.8869024980812015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0.2</v>
+      </c>
+      <c r="B25">
+        <v>6.38</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E35" si="0">LN(B25)</f>
+        <v>1.8531680973566984</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25:H32" si="1">$E$41*EXP($E$38*G25)</f>
+        <v>1.3311703222489617</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="3">
+        <f>B25-H25</f>
+        <v>5.048829677751038</v>
+      </c>
+      <c r="L25" s="3">
+        <f>LN(K25)</f>
+        <v>1.6191564694497951</v>
+      </c>
+      <c r="N25">
+        <v>0.2</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ref="O25:O35" si="2">LN(H25)</f>
+        <v>0.28605849685263995</v>
+      </c>
+      <c r="P25">
+        <v>1.6191564694497951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0.4</v>
+      </c>
+      <c r="B26">
+        <v>4.25</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4469189829363254</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2921826233304512</v>
+      </c>
+      <c r="J26">
+        <v>0.4</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" ref="K26:K29" si="3">B26-H26</f>
+        <v>2.9578173766695488</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" ref="L26:L29" si="4">LN(K26)</f>
+        <v>1.0844516235961961</v>
+      </c>
+      <c r="N26">
+        <v>0.4</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25633274469850986</v>
+      </c>
+      <c r="P26">
+        <v>1.0844516235961961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>2.57</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94390589890712839</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2358316156565423</v>
+      </c>
+      <c r="J27">
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3341683843434575</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.28830816467272929</v>
+      </c>
+      <c r="N27">
+        <v>0.7</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2117441164673147</v>
+      </c>
+      <c r="P27">
+        <v>0.28830816467272929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1.79</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58221561985266368</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1819380284807366</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60806197151926344</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.49747847536926371</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16715548823611953</v>
+      </c>
+      <c r="P28">
+        <v>-0.49747847536926371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>1.5</v>
+      </c>
+      <c r="B29">
+        <v>1.27</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23901690047049992</v>
+      </c>
+      <c r="G29">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="2">
+        <f>$E$41*EXP($E$38*G29)</f>
+        <v>1.0972873710672122</v>
+      </c>
+      <c r="J29">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.17271262893278783</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.7561261700827988</v>
+      </c>
+      <c r="N29">
+        <v>1.5</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2841107850794122E-2</v>
+      </c>
+      <c r="P29">
+        <v>-1.7561261700827999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1.07</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0186994120590795</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8526727465468858E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.89</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f>LN(B31)</f>
+        <v>-0.11653381625595151</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87800584051215991</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.13010203330518183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.76</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.2744368457017603</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75674359565523752</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.27873079407583262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.57981849525294205</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.57981849525294205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.42</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.86750056770472306</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>0.42</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.86750056770472306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.23</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.4696759700589417</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>0.23</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4696759700589417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="G37" s="4"/>
+      <c r="N37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f>F38</f>
+        <v>-0.14862876077065068</v>
+      </c>
+      <c r="F38">
+        <f t="array" ref="F38:G38">LINEST(E33:E35,D33:D35,TRUE,TRUE)</f>
+        <v>-0.14862876077065068</v>
+      </c>
+      <c r="G38">
+        <v>0.31578424900677027</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <f>L38</f>
+        <v>-1.8740723000273989</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38:M42">LINEST(E24:E27,D24:D27,TRUE,TRUE)</f>
+        <v>-1.8740723000273989</v>
+      </c>
+      <c r="M38">
+        <v>2.2352165319761879</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <f>-E38</f>
+        <v>0.14862876077065068</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <f>-K38</f>
+        <v>1.8740723000273989</v>
+      </c>
+      <c r="L39">
+        <v>7.8872210471545343E-2</v>
+      </c>
+      <c r="M39">
+        <v>3.2994612852962159E-2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <f>G38</f>
+        <v>0.31578424900677027</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <f>M38</f>
+        <v>2.2352165319761879</v>
+      </c>
+      <c r="L40">
+        <v>0.99647004162724628</v>
+      </c>
+      <c r="M40">
+        <v>3.6143787471434513E-2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <f>EXP(E40)</f>
+        <v>1.371334356957411</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <f>EXP(K40)</f>
+        <v>9.3485058835083343</v>
+      </c>
+      <c r="L41">
+        <v>564.57891929750497</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="L42">
+        <v>0.73755086700329675</v>
+      </c>
+      <c r="M42">
+        <v>2.6127467455604528E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43:M47">LINEST(E24:E27,D24:D27,TRUE,TRUE)</f>
+        <v>-1.8740723000273989</v>
+      </c>
+      <c r="M43">
+        <v>2.2352165319761879</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>7.8872210471545343E-2</v>
+      </c>
+      <c r="M44">
+        <v>3.2994612852962159E-2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>0.99647004162724628</v>
+      </c>
+      <c r="M45">
+        <v>3.6143787471434513E-2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46">
+        <v>564.57891929750497</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="L47">
+        <v>0.73755086700329675</v>
+      </c>
+      <c r="M47">
+        <v>2.6127467455604528E-3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="N48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D567FF-65C4-EB41-A01B-DD6CFDB2BA4D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>7.95</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.7</v>
+      </c>
+      <c r="B5">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCDDFB5-C249-CF4B-AAE2-74E812765EAE}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD551F3-9009-954B-A276-48F1019C22E5}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B2">
+        <v>65.03</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7.5</v>
+      </c>
+      <c r="B8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE26A68-67A8-C241-BA63-D458AD6DB0A8}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.0967032967032964</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.3249084249084246</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.5498168498168499</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.73369963369963376</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.4474358974358974</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.42435897435897441</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.41263736263736267</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.39597069597069595</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.38846153846153847</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.38113553113553111</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.373992673992674</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.36684981684981688</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.35989010989010983</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.34010989010989012</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.28553113553113552</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213FC1D-062D-BA4B-B3F0-B90AA2416051}">
+  <dimension ref="A5:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.0967032967032964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.3249084249084246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.5498168498168499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.73369963369963376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.51190476190476186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.4474358974358974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.42435897435897441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.41263736263736267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.40384615384615385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.39597069597069595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.38846153846153847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.38113553113553111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.373992673992674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.36684981684981688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.35989010989010983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.34010989010989012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.28553113553113552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f>LN(B28)</f>
+        <v>1.5293952047605639</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>$E$52*EXP($E$49*G28)</f>
+        <v>0.47557601165406505</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>B28-H28</f>
+        <v>4.1398086037305504</v>
+      </c>
+      <c r="L28" s="3">
+        <f>LN(K28)</f>
+        <v>1.4206495557855794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4.0967032967032964</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E45" si="0">LN(B29)</f>
+        <v>1.4101825762945861</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="8">
+        <f>$E$52*EXP($E$49*G29)</f>
+        <v>0.47456835561338151</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" ref="K29:K45" si="1">B29-H29</f>
+        <v>3.6221349410899149</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:L45" si="2">LN(K29)</f>
+        <v>1.2870636147280072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2.3249084249084246</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8436806511274646</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30:H45" si="3">$E$52*EXP($E$49*G30)</f>
+        <v>0.46956201058079483</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8553464143276299</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6180714248927488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1.5498168498168499</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4381367625410621</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.46559498691245615</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0842218629043936</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0862552651298422E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.73369963369963376</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.3096555525131871</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.45582343626636795</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2778761974332658</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2805795974555423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.66961668314975131</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.44625696343407295</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5647798470688912E-2</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.7234512131339463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.4474358974358974</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.80422199748121037</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.43689126439963416</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.054463303626324E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.5521382654422986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.42435897435897441</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.85717554430657439</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.42772212547650135</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.3631511175269413E-3</v>
+      </c>
+      <c r="L35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="5">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.41263736263736267</v>
+      </c>
+      <c r="D36" s="5">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.88518612830670618</v>
+      </c>
+      <c r="G36" s="5">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="3"/>
+        <v>0.41874542141174736</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.1080587743846948E-3</v>
+      </c>
+      <c r="L36" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="5">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.9067212808580043</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="3"/>
+        <v>0.40995711353009101</v>
+      </c>
+      <c r="J37" s="5">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.1109596839371561E-3</v>
+      </c>
+      <c r="L37" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="5">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.39597069597069595</v>
+      </c>
+      <c r="D38" s="5">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.92641507053979721</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="3"/>
+        <v>0.40135324791687166</v>
+      </c>
+      <c r="J38" s="5">
+        <v>8</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.3825519461757065E-3</v>
+      </c>
+      <c r="L38" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="5">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.38846153846153847</v>
+      </c>
+      <c r="D39" s="5">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.94556111417426825</v>
+      </c>
+      <c r="G39" s="5">
+        <v>9</v>
+      </c>
+      <c r="H39" s="8">
+        <f>$E$52*EXP($E$49*G39)</f>
+        <v>0.39292995363915839</v>
+      </c>
+      <c r="J39" s="5">
+        <v>9</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.4684151776199221E-3</v>
+      </c>
+      <c r="L39" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="5">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.38113553113553111</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.96460024234531638</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="3"/>
+        <v>0.38468344100419305</v>
+      </c>
+      <c r="J40" s="5">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.5479098686619359E-3</v>
+      </c>
+      <c r="L40" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.373992673992674</v>
+      </c>
+      <c r="D41" s="5">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.9835190700143398</v>
+      </c>
+      <c r="G41" s="5">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3766099998543837</v>
+      </c>
+      <c r="J41" s="5">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.6173258617097073E-3</v>
+      </c>
+      <c r="L41" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="5">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.36684981684981688</v>
+      </c>
+      <c r="D42" s="5">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0028027330731324</v>
+      </c>
+      <c r="G42" s="5">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="3"/>
+        <v>0.36870599789808189</v>
+      </c>
+      <c r="J42" s="5">
+        <v>12</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.8561810482650154E-3</v>
+      </c>
+      <c r="L42" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.35989010989010983</v>
+      </c>
+      <c r="D43" s="5">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0219565444355894</v>
+      </c>
+      <c r="G43" s="5">
+        <v>13</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="3"/>
+        <v>0.36096787907539146</v>
+      </c>
+      <c r="J43" s="5">
+        <v>13</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0777691852816296E-3</v>
+      </c>
+      <c r="L43" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="5">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.34010989010989012</v>
+      </c>
+      <c r="D44" s="5">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0784865073862449</v>
+      </c>
+      <c r="G44" s="5">
+        <v>16</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="3"/>
+        <v>0.33871437092288625</v>
+      </c>
+      <c r="J44" s="5">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3955191870038686E-3</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.5744887558858069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="5">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.28553113553113552</v>
+      </c>
+      <c r="D45" s="5">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2534041996811742</v>
+      </c>
+      <c r="G45" s="5">
+        <v>24</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28585149283119521</v>
+      </c>
+      <c r="J45" s="5">
+        <v>24</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.2035730005969265E-4</v>
+      </c>
+      <c r="L45" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <f>F49</f>
+        <v>-2.1210596056251731E-2</v>
+      </c>
+      <c r="F49" s="6" cm="1">
+        <f t="array" ref="F49:G53">LINEST(E43:E45,D43:D45,TRUE,TRUE)</f>
+        <v>-2.1210596056251731E-2</v>
+      </c>
+      <c r="G49">
+        <v>-0.74322855350722228</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <f>L49</f>
+        <v>-1.0945630068116805</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49:M53">LINEST(E28:E31,D28:D31,TRUE,TRUE)</f>
+        <v>-1.0945630068116805</v>
+      </c>
+      <c r="M49">
+        <v>1.5205380765758836</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49">
+        <f>0.693/K50</f>
+        <v>0.63312938194267931</v>
+      </c>
+      <c r="Q49">
+        <f>0.693/E50</f>
+        <v>32.672349148610614</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17">
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <f>-E49</f>
+        <v>2.1210596056251731E-2</v>
+      </c>
+      <c r="F50">
+        <v>6.4740642653802983E-4</v>
+      </c>
+      <c r="G50">
+        <v>1.1825878631259838E-2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <f>-K49</f>
+        <v>1.0945630068116805</v>
+      </c>
+      <c r="L50">
+        <v>2.2090778217605522E-2</v>
+      </c>
+      <c r="M50">
+        <v>1.2928296491566717E-2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50">
+        <f>(K52*E50+E52*K50)/(E52+K52)</f>
+        <v>0.12228666912261237</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <f>G49</f>
+        <v>-0.74322855350722228</v>
+      </c>
+      <c r="F51">
+        <v>0.99906922684698485</v>
+      </c>
+      <c r="G51">
+        <v>5.2061567954942156E-3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <f>M49</f>
+        <v>1.5205380765758836</v>
+      </c>
+      <c r="L51">
+        <v>0.99918601417686637</v>
+      </c>
+      <c r="M51">
+        <v>1.7775871490956042E-2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51">
+        <f>K50*E50/P50</f>
+        <v>0.18985171451779997</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <f>EXP(E51)</f>
+        <v>0.47557601165406505</v>
+      </c>
+      <c r="F52">
+        <v>1073.375637888287</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52">
+        <f>EXP(K51)</f>
+        <v>4.5746860644280156</v>
+      </c>
+      <c r="L52">
+        <v>2455.0452496340044</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52">
+        <f>K50+E50-P50-P51</f>
+        <v>0.80363521922751979</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17">
+      <c r="F53">
+        <v>2.9092846900642455E-2</v>
+      </c>
+      <c r="G53">
+        <v>2.7104068579270599E-5</v>
+      </c>
+      <c r="L53">
+        <v>0.77574914388270577</v>
+      </c>
+      <c r="M53">
+        <v>6.3196321452596745E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17">
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17">
+      <c r="O55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17">
+      <c r="O56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17">
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17">
+      <c r="O58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17">
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0AF342-14D3-7E44-9A35-7B9842DC4D52}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.3957875457875453</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.4730769230769227</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.9080586080586079</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.961904761904762</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.4366300366300366</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.1437728937728937</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.97948717948717945</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.88626373626373622</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.83241758241758246</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.80018315018315012</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.78003663003663004</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.76648351648351654</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.75677655677655675</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.74890109890109891</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.74230769230769234</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.72564102564102562</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.68571428571428561</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9EDFB8-B1B2-EA4C-BB09-0EC4E78FAE00}">
+  <dimension ref="A4:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.3957875457875453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.4730769230769227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.9080586080586079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.961904761904762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.4366300366300366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.1437728937728937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.97948717948717945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.88626373626373622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.83241758241758246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.80018315018315012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.78003663003663004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.76648351648351654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="9">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.75677655677655675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="9">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.74890109890109891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="9">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.74230769230769234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.72564102564102562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.68571428571428561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f>LN(B28)</f>
+        <v>1.5293952047605639</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>$E$52*EXP($E$49*G28)</f>
+        <v>0.8145479311106234</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>B28-H28</f>
+        <v>3.8008366842739916</v>
+      </c>
+      <c r="L28" s="3">
+        <f>LN(K28)</f>
+        <v>1.3352212225683686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4.3957875457875453</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E45" si="0">LN(B29)</f>
+        <v>1.480646706389767</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="8">
+        <f>$E$52*EXP($E$49*G29)</f>
+        <v>0.81396317351307168</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" ref="K29:K45" si="1">B29-H29</f>
+        <v>3.5818243722744736</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:L45" si="2">LN(K29)</f>
+        <v>1.2758722718040041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3.4730769230769227</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2450409224014576</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30:H45" si="3">$E$52*EXP($E$49*G30)</f>
+        <v>0.81104567639491487</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>2.662031246682008</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97908945795136537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.9080586080586079</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.067485713546108</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.8087192096976098</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.099339398360998</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74162272303211274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1.961904761904762</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67391581863205774</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.80293219730135634</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1589725646034057</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14753389246691626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.4366300366300366</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36230011857728617</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.79718659546153925</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63944344116849738</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.44715710414423387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.1437728937728937</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13433235382072728</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.79148210785354978</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35229078591934393</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.0432983480520641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.97948717948717945</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.072613051711697E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.78581844027321124</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19366873921396821</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.6416061092344192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="9">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.88626373626373622</v>
+      </c>
+      <c r="D36" s="5">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.12074070194563222</v>
+      </c>
+      <c r="G36" s="5">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="3"/>
+        <v>0.7801953006216058</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10606843564213042</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.2436707739271466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="9">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.83241758241758246</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.18342106212737147</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="3"/>
+        <v>0.77461239889000943</v>
+      </c>
+      <c r="J37" s="5">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7805183527573023E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.8506768269170148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="9">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.80018315018315012</v>
+      </c>
+      <c r="D38" s="5">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.22291463978751494</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="3"/>
+        <v>0.76906944714493553</v>
+      </c>
+      <c r="J38" s="5">
+        <v>8</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1113703038214591E-2</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.4701069446767421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="9">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.78003663003663004</v>
+      </c>
+      <c r="D39" s="5">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.24841439881573724</v>
+      </c>
+      <c r="G39" s="5">
+        <v>9</v>
+      </c>
+      <c r="H39" s="8">
+        <f>$E$52*EXP($E$49*G39)</f>
+        <v>0.76356615951328444</v>
+      </c>
+      <c r="J39" s="5">
+        <v>9</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6470470523345604E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.1061861666915158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="9">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.76648351648351654</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.26594208581537498</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75810225216759963</v>
+      </c>
+      <c r="J40" s="5">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3812643159169031E-3</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7817565028472249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="9">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.75677655677655675</v>
+      </c>
+      <c r="D41" s="5">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.27868723849942162</v>
+      </c>
+      <c r="G41" s="5">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75267744331143072</v>
+      </c>
+      <c r="J41" s="5">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0991134651260364E-3</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.4969845566705633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="9">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.74890109890109891</v>
+      </c>
+      <c r="D42" s="5">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.28914834837430842</v>
+      </c>
+      <c r="G42" s="5">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="3"/>
+        <v>0.74729145316479828</v>
+      </c>
+      <c r="J42" s="5">
+        <v>12</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6096457363006245E-3</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.4317411637628519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="9">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.74230769230769234</v>
+      </c>
+      <c r="D43" s="5">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.29799144211064216</v>
+      </c>
+      <c r="G43" s="5">
+        <v>13</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="3"/>
+        <v>0.74194400394976601</v>
+      </c>
+      <c r="J43" s="5">
+        <v>13</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6368835792632837E-4</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.9192132165844944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="9">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.72564102564102562</v>
+      </c>
+      <c r="D44" s="5">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.3206998414804545</v>
+      </c>
+      <c r="G44" s="5">
+        <v>16</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="3"/>
+        <v>0.72613015384540924</v>
+      </c>
+      <c r="J44" s="5">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.8912820438362647E-4</v>
+      </c>
+      <c r="L44" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="9">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.68571428571428561</v>
+      </c>
+      <c r="D45" s="5">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.37729423114146821</v>
+      </c>
+      <c r="G45" s="5">
+        <v>24</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="3"/>
+        <v>0.68558828111161674</v>
+      </c>
+      <c r="J45" s="5">
+        <v>24</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2600460266887215E-4</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.9791921225619351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <f>F49</f>
+        <v>-7.1814999728692444E-3</v>
+      </c>
+      <c r="F49" s="6" cm="1">
+        <f t="array" ref="F49:G53">LINEST(E43:E45,D43:D45,TRUE,TRUE)</f>
+        <v>-7.1814999728692444E-3</v>
+      </c>
+      <c r="G49">
+        <v>-0.20512200539016495</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <f>L49</f>
+        <v>-0.46257404616316117</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49:M53">LINEST(E28:E31,D28:D31,TRUE,TRUE)</f>
+        <v>-0.46257404616316117</v>
+      </c>
+      <c r="M49">
+        <v>1.5272361063938176</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49">
+        <f>0.693/K50</f>
+        <v>1.4981385266815466</v>
+      </c>
+      <c r="Q49">
+        <f>0.693/E50</f>
+        <v>96.497946476093034</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17">
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <f>-E49</f>
+        <v>7.1814999728692444E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.0610173602041746E-4</v>
+      </c>
+      <c r="G50">
+        <v>1.9381121368428691E-3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <f>-K49</f>
+        <v>0.46257404616316117</v>
+      </c>
+      <c r="L50">
+        <v>5.1520868696897405E-3</v>
+      </c>
+      <c r="M50">
+        <v>3.0151815361838625E-3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <f>G49</f>
+        <v>-0.20512200539016495</v>
+      </c>
+      <c r="F51">
+        <v>0.99978176727997492</v>
+      </c>
+      <c r="G51">
+        <v>8.5322334063049621E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <f>M49</f>
+        <v>1.5272361063938176</v>
+      </c>
+      <c r="L51">
+        <v>0.99975195750621659</v>
+      </c>
+      <c r="M51">
+        <v>4.1457495613648745E-3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <f>EXP(E51)</f>
+        <v>0.8145479311106234</v>
+      </c>
+      <c r="F52">
+        <v>4581.2642905472176</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52">
+        <f>EXP(K51)</f>
+        <v>4.6054302960439557</v>
+      </c>
+      <c r="L52">
+        <v>8061.1345439782881</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17">
+      <c r="F53">
+        <v>3.335114906967421E-3</v>
+      </c>
+      <c r="G53">
+        <v>7.2799006899666378E-7</v>
+      </c>
+      <c r="L53">
+        <v>0.13854864944898346</v>
+      </c>
+      <c r="M53">
+        <v>3.4374478851114095E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17">
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17">
+      <c r="O55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17">
+      <c r="O56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17">
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17">
+      <c r="O58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17">
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset/轉折點判斷標準.xlsx
+++ b/dataset/轉折點判斷標準.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/po8_fox/PycharmProjects/PharmacokineticAnalysis/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B76B41-4898-D340-B171-F13DD9E3911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6661CEE-7294-6048-B386-E88A08BC9F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="6600" windowWidth="14400" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16080" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定完成(勿動)" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Normal" sheetId="7" r:id="rId7"/>
     <sheet name="Renal_test" sheetId="8" r:id="rId8"/>
     <sheet name="Renal" sheetId="9" r:id="rId9"/>
+    <sheet name="工作表2" sheetId="11" r:id="rId10"/>
+    <sheet name="工作表1" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>GIVEN DATA</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -250,6 +252,30 @@
     <t>Dose</t>
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>dose</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMe</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>lncp</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +286,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,8 +635,27 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,8 +835,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -906,6 +957,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1681,7 +1780,7 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1700,8 +1799,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="356">
@@ -8423,26 +8546,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -9216,6 +9339,1406 @@
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3EA678-E15F-6144-BA38-42BE8421D348}">
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>11.55</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <f>LN(B2)</f>
+        <v>2.4466854369678028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>16.38</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="0">LN(B3)</f>
+        <v>2.7960610784249234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9.66</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.2679936482244267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>11.74</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.4630018143999504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4.12</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.4158531633614351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <v>7.07</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.9558604799084813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.145931282948669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12.12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.4948569806411682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>6.67</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.8976198599275322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9.81</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.2834022735772717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="11">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12">
+        <v>7.53</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.0188950418118021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="11">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12">
+        <v>7.97</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.0756844928021239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="11">
+        <v>72</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5.29</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.665818245870208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="11">
+        <v>72</v>
+      </c>
+      <c r="B15" s="13">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="11">
+        <v>168</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4.66</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.5390154481375546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1">
+      <c r="A17" s="11">
+        <v>168</v>
+      </c>
+      <c r="B17" s="12">
+        <v>5.88</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.7715567619105355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1">
+      <c r="A18" s="11">
+        <v>336</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.70309751141311339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1">
+      <c r="A19" s="11">
+        <v>336</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3.39</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.220829921392359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1">
+      <c r="A20" s="11">
+        <v>504</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.81093021621632877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1">
+      <c r="A21" s="11">
+        <v>672</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1">
+      <c r="A22" s="11">
+        <v>672</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1">
+      <c r="A28" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B28" s="12">
+        <v>11.55</v>
+      </c>
+      <c r="D28" s="5">
+        <f>A28</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <f>LN(B28)</f>
+        <v>2.4466854369678028</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>$E$57*EXP($E$54*G28)</f>
+        <v>8.0685689165889904</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>B28-H28</f>
+        <v>3.4814310834110103</v>
+      </c>
+      <c r="L28" s="3">
+        <f>LN(K28)</f>
+        <v>1.2474434401193777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1">
+      <c r="A29" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B29" s="12">
+        <v>16.38</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:D48" si="1">A29</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E47" si="2">LN(B29)</f>
+        <v>2.7960610784249234</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" ref="H29:H45" si="3">$E$57*EXP($E$54*G29)</f>
+        <v>8.0661762255147895</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" ref="K29:K45" si="4">B29-H29</f>
+        <v>8.3138237744852095</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:L45" si="5">LN(K29)</f>
+        <v>2.1179196443687576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1">
+      <c r="A30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B30" s="12">
+        <v>9.66</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2679936482244267</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0542234090331508</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6057765909668493</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="5"/>
+        <v>0.47360749686099951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1">
+      <c r="A31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="12">
+        <v>11.74</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4630018143999504</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0446739099007498</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="4"/>
+        <v>3.6953260900992504</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3070688022245469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4.12</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4158531633614351</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0208496680966572</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="4"/>
+        <v>-3.9008496680966571</v>
+      </c>
+      <c r="L32" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12">
+        <v>7.07</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9558604799084813</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="3"/>
+        <v>7.9970959816070373</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.92709598160703699</v>
+      </c>
+      <c r="L33" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" thickBot="1">
+      <c r="A34" s="11">
+        <v>2</v>
+      </c>
+      <c r="B34" s="12">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>2.145931282948669</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="3"/>
+        <v>7.9734126414828523</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="4"/>
+        <v>0.57658735851714837</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.55062841819932451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" thickBot="1">
+      <c r="A35" s="11">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12">
+        <v>12.12</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4948569806411682</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="3"/>
+        <v>7.949799439393864</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="4"/>
+        <v>4.1702005606061352</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4279641307227489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" thickBot="1">
+      <c r="A36" s="11">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12">
+        <v>6.67</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8976198599275322</v>
+      </c>
+      <c r="G36" s="5">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="3"/>
+        <v>7.9262561676268062</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.2562561676268063</v>
+      </c>
+      <c r="L36" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" thickBot="1">
+      <c r="A37" s="11">
+        <v>6</v>
+      </c>
+      <c r="B37" s="12">
+        <v>9.81</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2834022735772717</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="3"/>
+        <v>7.90278261908355</v>
+      </c>
+      <c r="J37" s="5">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9072173809164505</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="5"/>
+        <v>0.64564531116345947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" thickBot="1">
+      <c r="A38" s="11">
+        <v>24</v>
+      </c>
+      <c r="B38" s="12">
+        <v>7.53</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0188950418118021</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="3"/>
+        <v>7.8793785872792901</v>
+      </c>
+      <c r="J38" s="5">
+        <v>8</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.34937858727928983</v>
+      </c>
+      <c r="L38" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" thickBot="1">
+      <c r="A39" s="11">
+        <v>24</v>
+      </c>
+      <c r="B39" s="12">
+        <v>7.97</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0756844928021239</v>
+      </c>
+      <c r="G39" s="5">
+        <v>9</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="3"/>
+        <v>7.8560438663407197</v>
+      </c>
+      <c r="J39" s="5">
+        <v>9</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11395613365928003</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.171941697101714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" thickBot="1">
+      <c r="A40" s="11">
+        <v>72</v>
+      </c>
+      <c r="B40" s="12">
+        <v>5.29</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>1.665818245870208</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="3"/>
+        <v>7.8327782510042292</v>
+      </c>
+      <c r="J40" s="5">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="4"/>
+        <v>-2.5427782510042292</v>
+      </c>
+      <c r="L40" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickBot="1">
+      <c r="A41" s="11">
+        <v>72</v>
+      </c>
+      <c r="B41" s="13">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="G41" s="5">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="3"/>
+        <v>7.8095815366140915</v>
+      </c>
+      <c r="J41" s="5">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.80958153661409149</v>
+      </c>
+      <c r="L41" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickBot="1">
+      <c r="A42" s="11">
+        <v>168</v>
+      </c>
+      <c r="B42" s="12">
+        <v>4.66</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5390154481375546</v>
+      </c>
+      <c r="G42" s="5">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="3"/>
+        <v>7.786453519120669</v>
+      </c>
+      <c r="J42" s="5">
+        <v>12</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="4"/>
+        <v>-3.1264535191206688</v>
+      </c>
+      <c r="L42" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" thickBot="1">
+      <c r="A43" s="11">
+        <v>168</v>
+      </c>
+      <c r="B43" s="12">
+        <v>5.88</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7715567619105355</v>
+      </c>
+      <c r="G43" s="5">
+        <v>13</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="3"/>
+        <v>7.7633939950786122</v>
+      </c>
+      <c r="J43" s="5">
+        <v>13</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.8833939950786123</v>
+      </c>
+      <c r="L43" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickBot="1">
+      <c r="A44" s="11">
+        <v>336</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70309751141311339</v>
+      </c>
+      <c r="G44" s="5">
+        <v>16</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="3"/>
+        <v>7.6946243582340017</v>
+      </c>
+      <c r="J44" s="5">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="4"/>
+        <v>-5.6746243582340021</v>
+      </c>
+      <c r="L44" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" thickBot="1">
+      <c r="A45" s="11">
+        <v>336</v>
+      </c>
+      <c r="B45" s="12">
+        <v>3.39</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>1.220829921392359</v>
+      </c>
+      <c r="G45" s="5">
+        <v>24</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="3"/>
+        <v>7.5142022125848875</v>
+      </c>
+      <c r="J45" s="5">
+        <v>24</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="4"/>
+        <v>-4.124202212584887</v>
+      </c>
+      <c r="L45" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" thickBot="1">
+      <c r="A46" s="11">
+        <v>504</v>
+      </c>
+      <c r="B46" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.81093021621632877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15" thickBot="1">
+      <c r="A47" s="11">
+        <v>672</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" thickBot="1">
+      <c r="A48" s="11">
+        <v>672</v>
+      </c>
+      <c r="B48" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="E48" s="2">
+        <f>LN(B48)</f>
+        <v>6.7658648473814864E-2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17">
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49">
+        <f>0.693/K55</f>
+        <v>1.1293811646766105</v>
+      </c>
+      <c r="Q49">
+        <f>0.693/E55</f>
+        <v>233.6569568482885</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17">
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17">
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17">
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17">
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <f>F54</f>
+        <v>-2.9658864403081268E-3</v>
+      </c>
+      <c r="F54" s="6" cm="1">
+        <f t="array" ref="F54:G58">LINEST(E36:E48,D36:D48,TRUE,TRUE)</f>
+        <v>-2.9658864403081268E-3</v>
+      </c>
+      <c r="G54">
+        <v>2.0879761328003568</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <f>L54</f>
+        <v>-0.61361037502200155</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54:M58">LINEST(E28:E31,D28:D31,TRUE,TRUE)</f>
+        <v>-0.61361037502200155</v>
+      </c>
+      <c r="M54">
+        <v>2.6723029188231893</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <f>-E54</f>
+        <v>2.9658864403081268E-3</v>
+      </c>
+      <c r="F55">
+        <v>2.1726589980534903E-4</v>
+      </c>
+      <c r="G55">
+        <v>7.2586522911619752E-2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <f>-K54</f>
+        <v>0.61361037502200155</v>
+      </c>
+      <c r="L55">
+        <v>0.4797534631805061</v>
+      </c>
+      <c r="M55">
+        <v>0.17193958520462208</v>
+      </c>
+      <c r="O55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17">
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <f>G54</f>
+        <v>2.0879761328003568</v>
+      </c>
+      <c r="F56">
+        <v>0.94426104058014193</v>
+      </c>
+      <c r="G56">
+        <v>0.18572601251480597</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <f>M54</f>
+        <v>2.6723029188231893</v>
+      </c>
+      <c r="L56">
+        <v>0.44992553442245509</v>
+      </c>
+      <c r="M56">
+        <v>0.20005719414627099</v>
+      </c>
+      <c r="O56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17">
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <f>EXP(E56)</f>
+        <v>8.0685689165889904</v>
+      </c>
+      <c r="F57">
+        <v>186.34849940670139</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57">
+        <f>EXP(K56)</f>
+        <v>14.473261589793438</v>
+      </c>
+      <c r="L57">
+        <v>1.63587136861574</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17">
+      <c r="F58">
+        <v>6.4279334121955829</v>
+      </c>
+      <c r="G58">
+        <v>0.37943566897114844</v>
+      </c>
+      <c r="L58">
+        <v>6.5472285002378408E-2</v>
+      </c>
+      <c r="M58">
+        <v>8.0045761859357537E-2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17">
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B83AD9-F42B-6D40-B012-45AF44F8DA8B}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>11.55</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="12">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="11">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="11">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="11">
+        <v>168</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="11">
+        <v>336</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="11">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="11">
+        <v>24</v>
+      </c>
+      <c r="B16" s="12">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="11">
+        <v>72</v>
+      </c>
+      <c r="B17" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="11">
+        <v>168</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="11">
+        <v>336</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="11">
+        <v>504</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="18">
+        <v>504</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="11">
+        <v>672</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="11">
+        <v>672</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9230,26 +10753,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -10445,7 +11968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE26A68-67A8-C241-BA63-D458AD6DB0A8}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10636,8 +12159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213FC1D-062D-BA4B-B3F0-B90AA2416051}">
   <dimension ref="A5:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -11653,21 +13176,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0AF342-14D3-7E44-9A35-7B9842DC4D52}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11844,8 +13365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9EDFB8-B1B2-EA4C-BB09-0EC4E78FAE00}">
   <dimension ref="A4:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/dataset/轉折點判斷標準.xlsx
+++ b/dataset/轉折點判斷標準.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/po8_fox/PycharmProjects/PharmacokineticAnalysis/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6661CEE-7294-6048-B386-E88A08BC9F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1499CA-43A5-D84C-96B7-B032F4C16116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16080" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定完成(勿動)" sheetId="1" r:id="rId1"/>
@@ -9346,8 +9346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3EA678-E15F-6144-BA38-42BE8421D348}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="107" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10540,7 +10540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B83AD9-F42B-6D40-B012-45AF44F8DA8B}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
